--- a/biology/Botanique/Parc_de_Maurepas/Parc_de_Maurepas.xlsx
+++ b/biology/Botanique/Parc_de_Maurepas/Parc_de_Maurepas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le parc de Maurepas est un jardin municipal de 6,5 hectares créé en 1936 et situé à Rennes. Paradoxalement, ce parc ne se trouve pas dans le quartier Maurepas, mais dans le quartier Jeanne d'Arc[1]. Dessiné par l’entreprise Moser de Versailles en 1936, la construction débute en 1938.
+Le parc de Maurepas est un jardin municipal de 6,5 hectares créé en 1936 et situé à Rennes. Paradoxalement, ce parc ne se trouve pas dans le quartier Maurepas, mais dans le quartier Jeanne d'Arc. Dessiné par l’entreprise Moser de Versailles en 1936, la construction débute en 1938.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc est situé au nord de Rennes, entre les boulevards Paul Painlevé et Raymond Poincaré et la rue Courteline. L’entrée principale, située au sud au croisement des deux boulevards donne sur un boulingrin et un belvédère. Il existe quatre autres entrées (boulevard Painlevé, rue Francis Pellerin, rue Courteline, boulevard Poincaré)[2]. Il est principalement desservi par les lignes de bus C1, 14 et 32 aux arrêts Painlevé et Assomption.
-Le parc de Maurepas est créé essentiellement comme une aire de jeu et de détente en 1936[3] ou 1933 sous le mandat du maire Jean Lemaistre[2]. Il remporte le succès et a participé à l'installation d'équipements de loisirs dans le parc du Thabor, parc prestigieux rennais[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc est situé au nord de Rennes, entre les boulevards Paul Painlevé et Raymond Poincaré et la rue Courteline. L’entrée principale, située au sud au croisement des deux boulevards donne sur un boulingrin et un belvédère. Il existe quatre autres entrées (boulevard Painlevé, rue Francis Pellerin, rue Courteline, boulevard Poincaré). Il est principalement desservi par les lignes de bus C1, 14 et 32 aux arrêts Painlevé et Assomption.
+Le parc de Maurepas est créé essentiellement comme une aire de jeu et de détente en 1936 ou 1933 sous le mandat du maire Jean Lemaistre. Il remporte le succès et a participé à l'installation d'équipements de loisirs dans le parc du Thabor, parc prestigieux rennais.
 </t>
         </is>
       </c>
@@ -544,13 +558,50 @@
           <t>Aménagements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>On y trouve des portiques et une pergola Art déco en béton.
-Le parc de Maurepas dispose de 5,5 ha de terrain divisés en 25 718 m2 de pelouse et 8 080 m2 d'espaces boisés[2]. Une haie d’ifs de 800 m et les « deux seuls pins parasols connus à Rennes » sont présents dans le parc[réf. nécessaire]. 
-Une piste cyclable de 300 m avec feu tricolore et signalisation routière miniature, un manège, un terrain de pétanque et un bac à sable font partie des aménagements du parc[2].
-Espèces végétales
-Tilleul
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On y trouve des portiques et une pergola Art déco en béton.
+Le parc de Maurepas dispose de 5,5 ha de terrain divisés en 25 718 m2 de pelouse et 8 080 m2 d'espaces boisés. Une haie d’ifs de 800 m et les « deux seuls pins parasols connus à Rennes » sont présents dans le parc[réf. nécessaire]. 
+Une piste cyclable de 300 m avec feu tricolore et signalisation routière miniature, un manège, un terrain de pétanque et un bac à sable font partie des aménagements du parc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Parc_de_Maurepas</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_de_Maurepas</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Aménagements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces végétales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tilleul
 Saule
 Tulipier de Virginie
 Érable du Japon
